--- a/data/trans_bre/P74B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>71.25404516770391</v>
+        <v>69.15438412674575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>23.90402023006472</v>
+        <v>23.63808621993217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.50026880095675</v>
+        <v>15.73034570103111</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>5.294586278934982</v>
+        <v>4.62385439805423</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6711961146209316</v>
+        <v>0.6495556981975671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6749275756948525</v>
+        <v>0.644453764284872</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>91.77166302964235</v>
+        <v>91.60097715573522</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>55.86530171171329</v>
+        <v>56.81944403363956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44.88572256848467</v>
+        <v>45.07826480830116</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23.62579243902724</v>
+        <v>19.4707529695791</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.902808302896743</v>
+        <v>2.963145039382042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.605900629404171</v>
+        <v>3.757343105790857</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>64.01518123395631</v>
+        <v>63.737301693181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>50.13326756313109</v>
+        <v>51.67048369933186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49.40058176330311</v>
+        <v>50.06632282518449</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>7.585425126313296</v>
+        <v>7.722526608395456</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>4.071639315776802</v>
+        <v>4.155424579824624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>5.308850037505349</v>
+        <v>5.206188239570861</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>80.89162215695619</v>
+        <v>81.60973184322941</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>67.46571455388271</v>
+        <v>68.91906256811063</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66.01455047154613</v>
+        <v>66.65445470860976</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>28.92206693734911</v>
+        <v>28.72522066201762</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>13.16193216320746</v>
+        <v>13.58022400111491</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>16.85977284259757</v>
+        <v>17.68974407668354</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>69.72796967483002</v>
+        <v>70.01975725075371</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>46.13515835761277</v>
+        <v>46.52794986767741</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38.35628982581483</v>
+        <v>38.22591911624026</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9.340632943534624</v>
+        <v>10.15641102466137</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3.519051742094984</v>
+        <v>3.326201546040887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.138864720447345</v>
+        <v>2.223543810599241</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>89.8897940798561</v>
+        <v>89.80309033126521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>71.60823995436888</v>
+        <v>72.23189380224909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62.42626371052216</v>
+        <v>62.43321872457693</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>63.62167599641498</v>
+        <v>62.48196926611675</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>12.19358801977836</v>
+        <v>12.75758795131839</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>7.187782353988523</v>
+        <v>7.598503861394846</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>58.27430398513336</v>
+        <v>59.39606379599432</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>47.25791881157271</v>
+        <v>44.91037948725107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42.7350132371695</v>
+        <v>42.42401518045257</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3.11885467281808</v>
+        <v>3.237905370975182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.700704042805811</v>
+        <v>1.574705978746137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.018956618785327</v>
+        <v>1.962205159261607</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.85215969165354</v>
+        <v>79.42262413384871</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>69.11861220626918</v>
+        <v>68.22333663167613</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>63.46297599753634</v>
+        <v>64.29214379404739</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8.900417287969919</v>
+        <v>8.784090579251377</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.848683352082288</v>
+        <v>4.771963535781752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.276852382544837</v>
+        <v>5.473956497619641</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>52.85151414006679</v>
+        <v>55.65162150853177</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>33.57615663778963</v>
+        <v>35.49062635608093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.58545906108099</v>
+        <v>23.03476801702233</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2.850648360353534</v>
+        <v>2.757093771797761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.318989458855244</v>
+        <v>1.41839788002277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8252852183787428</v>
+        <v>0.7792296526101719</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>84.9975956257975</v>
+        <v>83.43816769225157</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>64.06477942563896</v>
+        <v>65.60616201102849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51.21997845528585</v>
+        <v>51.57661920709275</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14.58166934621136</v>
+        <v>13.3878318023882</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.345565918973596</v>
+        <v>7.353661137116349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.008117375724803</v>
+        <v>3.061409465821349</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>68.92540160717223</v>
+        <v>69.47235451165675</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>35.59966245403462</v>
+        <v>37.17932887789135</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53.96487709424379</v>
+        <v>53.44956250341575</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>10.49412280619793</v>
+        <v>11.01150096494656</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.355077565045058</v>
+        <v>2.532652790474494</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>6.321227343922547</v>
+        <v>5.593929002883723</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>88.80082644058498</v>
+        <v>89.03331186053499</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>60.70760370606103</v>
+        <v>60.20476539546964</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78.14907537923051</v>
+        <v>78.28663160417331</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>115.0856014107115</v>
+        <v>108.3736996704737</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10.47031775974219</v>
+        <v>10.9730194260101</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>67.46979150860834</v>
+        <v>64.82868844538014</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>64.13917973090273</v>
+        <v>64.00726360389528</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>43.88394189570025</v>
+        <v>44.00675193548963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>48.46149511277068</v>
+        <v>47.99088091783627</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5.619142445654366</v>
+        <v>5.309974133998185</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2.552968455842247</v>
+        <v>2.601406447831815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3.442562680738613</v>
+        <v>3.484156013397274</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>79.71774288049824</v>
+        <v>80.1142630909693</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>61.20372699690093</v>
+        <v>61.1715340665032</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67.10213904432348</v>
+        <v>66.50976647149614</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>14.56535237602636</v>
+        <v>13.38326240319069</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>6.310776510961378</v>
+        <v>6.352918566470562</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>10.15502324445168</v>
+        <v>10.74921940778688</v>
       </c>
     </row>
     <row r="25">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>67.19115495120414</v>
+        <v>67.28769428794953</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>51.25751872715577</v>
+        <v>50.97037120252425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49.10488464931881</v>
+        <v>48.77529434019682</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5.794835257627893</v>
+        <v>5.745987131002992</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4.411526159995372</v>
+        <v>4.288401373802389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.650443311122896</v>
+        <v>2.672382575880107</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>80.87719447148854</v>
+        <v>82.08857992943224</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>66.20574789768204</v>
+        <v>66.08184844226182</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>64.97318629046836</v>
+        <v>64.38142825557198</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13.77875213388231</v>
+        <v>13.79968811765631</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10.08510283350688</v>
+        <v>10.20043385263798</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.456421091752285</v>
+        <v>5.483725872592755</v>
       </c>
     </row>
     <row r="28">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>71.87719752796218</v>
+        <v>71.90171117820933</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>51.77572215808586</v>
+        <v>51.54251588514686</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49.49478065432679</v>
+        <v>50.06605157068735</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>8.161821327167939</v>
+        <v>8.299817579688387</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>3.649955968644591</v>
+        <v>3.627890238838849</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>3.556835991481049</v>
+        <v>3.582514551833675</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>78.72503023335814</v>
+        <v>78.53035722692705</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>59.43944765393616</v>
+        <v>59.18611269178641</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>57.19261064188205</v>
+        <v>57.3104928777646</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>12.38752747464918</v>
+        <v>12.46162927480072</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5.336960878438317</v>
+        <v>5.419958858649117</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5.1781832443528</v>
+        <v>5.204518912469164</v>
       </c>
     </row>
     <row r="31">
